--- a/data/guru_wali_kelas.xlsx
+++ b/data/guru_wali_kelas.xlsx
@@ -453,7 +453,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Andi Romansah, S.Ag.</t>
+          <t>Romlah Siti Nurjanah, S.Sos.</t>
         </is>
       </c>
     </row>
@@ -465,7 +465,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fadilah Syafitra, S.H.</t>
+          <t>Andi Romansah, S.Ag.</t>
         </is>
       </c>
     </row>
@@ -477,7 +477,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Romlah Siti Nurjanah, S.Sos.</t>
+          <t>Fadilah Syafitra, S.H.</t>
         </is>
       </c>
     </row>
